--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230880.31689241</v>
+        <v>1227857.730915686</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673421</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.710907708664852</v>
       </c>
       <c r="E2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92112911249622</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,50 +741,50 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>27.0180752910075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I5" t="n">
         <v>38.48106384277808</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -981,64 +981,64 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="S6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="J7" t="n">
         <v>38.48106384277808</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>31.75862211473943</v>
+        <v>31.75862211474135</v>
       </c>
       <c r="G8" t="n">
-        <v>233.1896216146424</v>
+        <v>233.1896216146434</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.92897356806972</v>
+        <v>13.92897356806907</v>
       </c>
       <c r="S8" t="n">
-        <v>159.7058230353678</v>
+        <v>159.7058230353676</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>233.1896216146434</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>233.1896216146424</v>
+        <v>233.1896216146434</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.1896216146424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1856258610307</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>42.5912601864454</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>49.53063845618553</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.26700400501643</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>150.1758480129083</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4976141917368</v>
       </c>
       <c r="U9" t="n">
-        <v>16.22935279577784</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.7280620804609</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.87604245041527</v>
+        <v>4.876042450414886</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.78428297325767</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.2088596205957</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393746</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184512</v>
+        <v>24.14662204184577</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615184</v>
+        <v>98.88510599615225</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>345.3896882803673</v>
+        <v>122.1664510704438</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812545</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530771</v>
+        <v>10.48847705530801</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075612</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061372</v>
+        <v>189.7415240061373</v>
       </c>
       <c r="U12" t="n">
         <v>225.7712536040104</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.37931672164556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>68.83667827564818</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710102</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695106</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534128</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.905700988125</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>101.5730368512042</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>78.71385496658212</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.31842549662629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.62554568141199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.64270308332</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.294096136280455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>55.02344404120677</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.20606459030805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>61.66004604094988</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>23.10998325717174</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487362</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.85274231757778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867832</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695605</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560535</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C46" t="n">
-        <v>63.38272884730949</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>63.34420421319749</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4769100231392</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="E2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="F2" t="n">
-        <v>60.24866940125354</v>
+        <v>56.50027777633954</v>
       </c>
       <c r="G2" t="n">
         <v>41.13641777246947</v>
@@ -4367,13 +4367,13 @@
         <v>101.4769100231392</v>
       </c>
       <c r="W2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D3" t="n">
-        <v>71.28067274328075</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E3" t="n">
-        <v>71.28067274328075</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="F3" t="n">
         <v>36.99793287059858</v>
@@ -4401,19 +4401,19 @@
         <v>36.99793287059858</v>
       </c>
       <c r="H3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>34.95810984817397</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>34.95810984817397</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
         <v>68.55862319738975</v>
@@ -4422,7 +4422,7 @@
         <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
-        <v>102.1591365466055</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="P3" t="n">
         <v>102.1591365466055</v>
@@ -4431,16 +4431,16 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V3" t="n">
         <v>101.4769100231392</v>
@@ -4449,10 +4449,10 @@
         <v>101.4769100231392</v>
       </c>
       <c r="X3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4483,7 @@
         <v>54.62217480869573</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="J4" t="n">
         <v>20.33943493601357</v>
@@ -4519,19 +4519,19 @@
         <v>101.4769100231392</v>
       </c>
       <c r="U4" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="W4" t="n">
-        <v>101.4769100231392</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="X4" t="n">
-        <v>101.4769100231392</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.19417015045701</v>
+        <v>54.62217480869573</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="F5" t="n">
-        <v>69.23923170720566</v>
+        <v>108.1089931645573</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="H5" t="n">
         <v>41.94824656477385</v>
@@ -4571,10 +4571,10 @@
         <v>3.078485107422247</v>
       </c>
       <c r="L5" t="n">
-        <v>41.17473831177255</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="M5" t="n">
-        <v>72.57095064492114</v>
+        <v>34.47469744057084</v>
       </c>
       <c r="N5" t="n">
         <v>72.57095064492114</v>
@@ -4595,22 +4595,22 @@
         <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
-        <v>41.94824656477385</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
@@ -4650,13 +4650,13 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>77.73174896241173</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M6" t="n">
-        <v>77.73174896241173</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73174896241173</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="O6" t="n">
         <v>77.73174896241173</v>
@@ -4668,28 +4668,28 @@
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>153.9242553711123</v>
+        <v>119.687769479477</v>
       </c>
       <c r="S6" t="n">
-        <v>153.9242553711123</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="T6" t="n">
-        <v>153.9242553711123</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="U6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="V6" t="n">
-        <v>153.9242553711123</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="W6" t="n">
-        <v>119.687769479477</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="X6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="Y6" t="n">
-        <v>80.81800802212544</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="F7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="G7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="H7" t="n">
-        <v>57.03132802508901</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="I7" t="n">
         <v>57.03132802508901</v>
@@ -4750,25 +4750,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.2796583447087</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="C8" t="n">
-        <v>286.2796583447087</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="D8" t="n">
-        <v>286.2796583447087</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="E8" t="n">
-        <v>286.2796583447087</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2002420671941</v>
+        <v>254.2002420671951</v>
       </c>
       <c r="G8" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="H8" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="I8" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="J8" t="n">
-        <v>188.6632309912236</v>
+        <v>21.25758197087152</v>
       </c>
       <c r="K8" t="n">
-        <v>301.1293889514986</v>
+        <v>75.89644156137652</v>
       </c>
       <c r="L8" t="n">
-        <v>405.8154876299201</v>
+        <v>180.5825402397996</v>
       </c>
       <c r="M8" t="n">
-        <v>553.9683807055181</v>
+        <v>328.7354333153993</v>
       </c>
       <c r="N8" t="n">
-        <v>709.1323508589933</v>
+        <v>483.8994034688762</v>
       </c>
       <c r="O8" t="n">
-        <v>842.314026695294</v>
+        <v>617.0810793051786</v>
       </c>
       <c r="P8" t="n">
-        <v>921.4805048956521</v>
+        <v>711.2886641423493</v>
       </c>
       <c r="Q8" t="n">
-        <v>932.7584864585697</v>
+        <v>932.7584864585735</v>
       </c>
       <c r="R8" t="n">
-        <v>918.6888161877922</v>
+        <v>918.6888161877968</v>
       </c>
       <c r="S8" t="n">
-        <v>757.369803020754</v>
+        <v>757.3698030207588</v>
       </c>
       <c r="T8" t="n">
-        <v>757.369803020754</v>
+        <v>757.3698030207588</v>
       </c>
       <c r="U8" t="n">
-        <v>757.369803020754</v>
+        <v>521.8247306827352</v>
       </c>
       <c r="V8" t="n">
-        <v>757.369803020754</v>
+        <v>521.8247306827352</v>
       </c>
       <c r="W8" t="n">
-        <v>521.8247306827313</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="X8" t="n">
-        <v>521.8247306827313</v>
+        <v>286.2796583447116</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.2796583447087</v>
+        <v>286.2796583447116</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>473.3615923689932</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="C9" t="n">
-        <v>473.3615923689932</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="D9" t="n">
-        <v>324.427182707742</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="E9" t="n">
-        <v>165.1897277022864</v>
+        <v>395.8033888170963</v>
       </c>
       <c r="F9" t="n">
-        <v>18.65516972917139</v>
+        <v>249.2688308439812</v>
       </c>
       <c r="G9" t="n">
-        <v>18.65516972917139</v>
+        <v>111.7075926005159</v>
       </c>
       <c r="H9" t="n">
-        <v>18.65516972917139</v>
+        <v>68.68611766471241</v>
       </c>
       <c r="I9" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="J9" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="K9" t="n">
-        <v>67.29645756400411</v>
+        <v>249.5128951276684</v>
       </c>
       <c r="L9" t="n">
-        <v>298.1541829625001</v>
+        <v>389.3421756618704</v>
       </c>
       <c r="M9" t="n">
-        <v>447.890904825597</v>
+        <v>539.0788975249686</v>
       </c>
       <c r="N9" t="n">
-        <v>615.9993570766356</v>
+        <v>707.1873497760087</v>
       </c>
       <c r="O9" t="n">
-        <v>747.5659530356709</v>
+        <v>838.7539457350451</v>
       </c>
       <c r="P9" t="n">
-        <v>833.8266791655095</v>
+        <v>925.0146718648848</v>
       </c>
       <c r="Q9" t="n">
-        <v>932.7584864585697</v>
+        <v>932.7584864585735</v>
       </c>
       <c r="R9" t="n">
-        <v>932.7584864585697</v>
+        <v>904.2059571605771</v>
       </c>
       <c r="S9" t="n">
-        <v>932.7584864585697</v>
+        <v>752.5131813899627</v>
       </c>
       <c r="T9" t="n">
-        <v>932.7584864585697</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="U9" t="n">
-        <v>916.3652008062688</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="V9" t="n">
-        <v>681.2130925745261</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="W9" t="n">
-        <v>681.2130925745261</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="X9" t="n">
-        <v>473.3615923689932</v>
+        <v>555.0408438225518</v>
       </c>
       <c r="Y9" t="n">
-        <v>473.3615923689932</v>
+        <v>555.0408438225518</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.4360512947889</v>
+        <v>632.5110331497176</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4360512947889</v>
+        <v>463.5748502218107</v>
       </c>
       <c r="D10" t="n">
-        <v>338.4360512947889</v>
+        <v>313.458210809475</v>
       </c>
       <c r="E10" t="n">
-        <v>190.5229577123958</v>
+        <v>165.5451172270818</v>
       </c>
       <c r="F10" t="n">
-        <v>43.63301021448544</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="G10" t="n">
-        <v>43.63301021448544</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="H10" t="n">
-        <v>43.63301021448544</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="I10" t="n">
-        <v>43.63301021448544</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="J10" t="n">
-        <v>18.65516972917139</v>
+        <v>18.65516972917147</v>
       </c>
       <c r="K10" t="n">
-        <v>108.2625623056363</v>
+        <v>108.2625623056369</v>
       </c>
       <c r="L10" t="n">
-        <v>278.4556086609855</v>
+        <v>278.4556086609869</v>
       </c>
       <c r="M10" t="n">
-        <v>468.2894363112786</v>
+        <v>468.2894363112806</v>
       </c>
       <c r="N10" t="n">
-        <v>659.0440562613683</v>
+        <v>659.044056261371</v>
       </c>
       <c r="O10" t="n">
-        <v>819.2205268006976</v>
+        <v>819.220526800701</v>
       </c>
       <c r="P10" t="n">
-        <v>932.7584864585697</v>
+        <v>932.7584864585735</v>
       </c>
       <c r="Q10" t="n">
-        <v>927.8331910541098</v>
+        <v>927.8331910541141</v>
       </c>
       <c r="R10" t="n">
-        <v>927.8331910541098</v>
+        <v>927.8331910541141</v>
       </c>
       <c r="S10" t="n">
-        <v>927.8331910541098</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="T10" t="n">
-        <v>927.8331910541098</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="U10" t="n">
-        <v>927.8331910541098</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="V10" t="n">
-        <v>927.8331910541098</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="W10" t="n">
-        <v>787.2181813363363</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="X10" t="n">
-        <v>559.228630438319</v>
+        <v>853.3036122932477</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.4360512947889</v>
+        <v>632.5110331497176</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1918.837135195602</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207293</v>
+        <v>1191.608919648439</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.436431609049</v>
+        <v>805.8206670501953</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194414</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="G11" t="n">
-        <v>394.834762260587</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309161</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592098</v>
+        <v>77.53766591592056</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706908</v>
+        <v>304.4060796706884</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656994</v>
+        <v>695.1615405656944</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625335</v>
+        <v>1216.830004625327</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087838</v>
+        <v>1828.956123087827</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484051</v>
+        <v>2455.600890484037</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535306</v>
+        <v>3033.98851353529</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967480006</v>
+        <v>3493.127967479988</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464073</v>
+        <v>3789.749829464053</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796049</v>
+        <v>3876.883295796028</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345391</v>
+        <v>3776.999350345369</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345391</v>
+        <v>3776.999350345369</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.999350345391</v>
+        <v>3523.505408466897</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.93646300182</v>
+        <v>3192.442521123327</v>
       </c>
       <c r="W11" t="n">
-        <v>3097.057989991348</v>
+        <v>3069.042065496616</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.592231730268</v>
+        <v>2695.576307235536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.452899754456</v>
+        <v>2305.436975259724</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390857</v>
+        <v>88.13208718390845</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592098</v>
+        <v>77.53766591592056</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592098</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813503616</v>
+        <v>470.7769964046646</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929889</v>
+        <v>889.4740370626155</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749518</v>
+        <v>1367.415930994299</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.99436445073</v>
+        <v>1903.225240695508</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783254</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.166285028029</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.4315026062659</v>
+        <v>858.8915125252781</v>
       </c>
       <c r="C13" t="n">
-        <v>389.4315026062659</v>
+        <v>689.9553295973712</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4315026062659</v>
+        <v>539.8386901850356</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062659</v>
+        <v>391.9255966026426</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062659</v>
+        <v>245.0356491047323</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174542</v>
+        <v>77.53766591592056</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592098</v>
+        <v>77.53766591592056</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592098</v>
+        <v>77.53766591592056</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758654</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648154</v>
+        <v>364.1690246648138</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344826</v>
+        <v>710.5788654344799</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376942</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336951</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818668</v>
+        <v>1786.049800818662</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010727</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742812</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742812</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276109</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710549</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.26409566</v>
+        <v>1848.271275692256</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454113</v>
+        <v>1778.739277434026</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171524</v>
+        <v>1489.322107397065</v>
       </c>
       <c r="X13" t="n">
-        <v>667.172886519135</v>
+        <v>1261.332556499048</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073756048</v>
+        <v>1040.539977355518</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,49 +5267,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5340,37 +5340,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797179</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797179</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797179</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703803</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969318</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427006</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7297566303649</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797179</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797179</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797179</v>
+        <v>205.0736424164618</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797179</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718103</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741044</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443772</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5580,37 +5580,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468466</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589156</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179074</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>593.61158639</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>593.61158639</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>445.6984928076068</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>445.6984928076068</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>278.5023935224867</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614375</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179074</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400713</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830895</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830895</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851791</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6011,13 +6011,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466574</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459578</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>599.601906018051</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761976</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.974531143471</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155642</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>546.5917956728308</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>398.6787020904378</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>398.6787020904377</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>231.4826028053176</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,7 +6734,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439267</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160198</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2384.680208791422</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2165.078743814363</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.003517158561</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1621.319028952674</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.901858915714</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017696</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741664</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>117.1600804794585</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>117.1600804794585</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>117.1600804794585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557278</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356196</v>
+        <v>559.042495327821</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>408.9258559154853</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1647.826443164476</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1130.419722229498</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806534</v>
+        <v>909.6271430859676</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541323</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>835.3959446011265</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362685</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7673,7 +7673,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474783</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327654</v>
+        <v>696.7084350851685</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011397</v>
+        <v>696.7084350851685</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>632.724390425373</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630052</v>
+        <v>878.3568999154081</v>
       </c>
     </row>
   </sheetData>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>158.4866804736682</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>160.3750816220401</v>
       </c>
       <c r="M3" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
         <v>167.6029932607663</v>
@@ -8219,13 +8219,13 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>237.3382646615596</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O5" t="n">
         <v>244.8579146936526</v>
@@ -8298,7 +8298,7 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>159.1247332407705</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8307,7 +8307,7 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>161.599892072038</v>
       </c>
       <c r="P6" t="n">
         <v>158.0709840006057</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>58.41141249471846</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.19303700687998</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.44229096378317</v>
+        <v>17.44229096378265</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>184.057007640064</v>
       </c>
       <c r="L9" t="n">
-        <v>120.3343131733918</v>
+        <v>28.38638906804323</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>92.10908353471926</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634791</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9590024596869</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3.851280437045653</v>
+        <v>227.0745176469692</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.4526634602917</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927362</v>
+        <v>90.25352389927382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905219</v>
+        <v>79.81330679905251</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>183.3009650481798</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-2.671640686457977e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.291678123991005e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823179</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.587530272852746e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38.72167599501969</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>173.4237883572459</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>94.92839560200154</v>
       </c>
       <c r="D22" t="n">
-        <v>124.9899273368004</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.9727699348924</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>85.27126880501712</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>119.3662399606947</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>58.15585306139378</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.9792378643595</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>30.95754073885467</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.4949402405049</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-8.863310085871493e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>103.8640922513183</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>85.27126880501474</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856546</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016445</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>962151.5438222403</v>
+        <v>962151.5438222401</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849796.958495705</v>
+        <v>849796.9584957026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935537.9172236546</v>
+        <v>935537.9172236556</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.9172236547</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236554</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>439553.5465646382</v>
+        <v>439553.546564637</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140034</v>
@@ -26332,7 +26332,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26341,16 +26341,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140034</v>
@@ -26369,40 +26369,40 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>491512.5954306265</v>
+        <v>491512.595430629</v>
       </c>
       <c r="E3" t="n">
-        <v>753160.736385445</v>
+        <v>753160.736385438</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704251</v>
+        <v>189308.2687704308</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.063472367008217e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335603</v>
+        <v>8880.174459335487</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491114</v>
+        <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>49278.98359503892</v>
+        <v>49278.98359503916</v>
       </c>
       <c r="M3" t="n">
-        <v>183421.9197465343</v>
+        <v>183421.9197465328</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202257</v>
+        <v>49839.57413202419</v>
       </c>
       <c r="O3" t="n">
-        <v>1.657103894103784e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>266424.973626669</v>
+        <v>266424.9736266684</v>
       </c>
       <c r="E4" t="n">
-        <v>8011.893867085548</v>
+        <v>8011.893867085434</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26436,28 +26436,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732006</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731987</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732002</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732021</v>
+        <v>8117.31242673209</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732018</v>
+        <v>8117.3124267321</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>59540.85891117612</v>
+        <v>59540.85891117623</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738592</v>
+        <v>85137.48506738551</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22621.3501797203</v>
+        <v>22621.35017972024</v>
       </c>
       <c r="C6" t="n">
-        <v>46435.48063883041</v>
+        <v>46435.48063883035</v>
       </c>
       <c r="D6" t="n">
-        <v>-324853.3660499018</v>
+        <v>-324853.3660499034</v>
       </c>
       <c r="E6" t="n">
-        <v>-406756.5687552782</v>
+        <v>-406977.7000692467</v>
       </c>
       <c r="F6" t="n">
-        <v>185739.8487929394</v>
+        <v>185705.1108674981</v>
       </c>
       <c r="G6" t="n">
-        <v>375048.1175633644</v>
+        <v>375013.3796379286</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633637</v>
+        <v>375013.379637929</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633644</v>
+        <v>375013.3796379286</v>
       </c>
       <c r="J6" t="n">
-        <v>366167.9431040288</v>
+        <v>366133.2051785932</v>
       </c>
       <c r="K6" t="n">
-        <v>373879.3705178733</v>
+        <v>373844.6325924376</v>
       </c>
       <c r="L6" t="n">
-        <v>325769.1339683255</v>
+        <v>325734.3960428895</v>
       </c>
       <c r="M6" t="n">
-        <v>191626.1978168301</v>
+        <v>191591.4598913959</v>
       </c>
       <c r="N6" t="n">
-        <v>325208.543431342</v>
+        <v>325173.8055059045</v>
       </c>
       <c r="O6" t="n">
-        <v>375048.1175633643</v>
+        <v>375013.3796379285</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633642</v>
+        <v>375013.3796379285</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>538.3178861011862</v>
+        <v>538.3178861011887</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214953</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26793,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>233.1896216146424</v>
+        <v>233.1896216146434</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490122</v>
+        <v>969.220823949007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>503.2966253820609</v>
+        <v>503.2966253820634</v>
       </c>
       <c r="E3" t="n">
-        <v>663.9233511137667</v>
+        <v>663.9233511137603</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267202</v>
+        <v>165.734263126725</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,40 +27015,40 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>194.7085577718643</v>
+        <v>194.7085577718653</v>
       </c>
       <c r="E4" t="n">
-        <v>736.0312023343698</v>
+        <v>736.0312023343636</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150635</v>
+        <v>203.4874641506416</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395525</v>
+        <v>33.93991247395502</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718643</v>
+        <v>194.7085577718653</v>
       </c>
       <c r="M4" t="n">
-        <v>736.0312023343698</v>
+        <v>736.0312023343638</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150635</v>
+        <v>203.4874641506416</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,19 +27261,19 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>194.7085577718643</v>
+        <v>194.7085577718653</v>
       </c>
       <c r="M4" t="n">
-        <v>736.0312023343698</v>
+        <v>736.0312023343636</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150635</v>
+        <v>203.4874641506416</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>350.9721339120181</v>
       </c>
       <c r="E2" t="n">
-        <v>347.9904575983064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2890922913352</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>315.3010562434577</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7508055483411</v>
       </c>
       <c r="F3" t="n">
-        <v>111.1292999194285</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>77.81746130333066</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>53.75242741433431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27515,13 +27515,13 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>175.8787102964176</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.3857047935936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2625580282554</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>56.48524998443612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203386</v>
+        <v>48.74710999203387</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27591,10 +27591,10 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>252.3768532711237</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.6913679354843</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27631,7 @@
         <v>388.1438732363119</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>299.5518830515227</v>
       </c>
       <c r="I5" t="n">
         <v>166.5670582748677</v>
@@ -27667,7 +27667,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>183.9984819271906</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>119.1640166126229</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>48.32201337990931</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>61.58672286766063</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>161.3800371293938</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>217.8008621282007</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27789,10 +27789,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>123.1846202550991</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>134.589418795024</v>
       </c>
       <c r="J7" t="n">
         <v>50.4131925917203</v>
@@ -27822,10 +27822,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4349480171686</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>208.7138830980289</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>375.117423626972</v>
+        <v>375.1174236269701</v>
       </c>
       <c r="G8" t="n">
-        <v>179.9490238960657</v>
+        <v>179.9490238960648</v>
       </c>
       <c r="H8" t="n">
-        <v>317.3117948754304</v>
+        <v>317.3117948754303</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0447325697386</v>
+        <v>127.0447325697382</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>213.6225368147527</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1725255474823</v>
+        <v>17.98290393283896</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>116.0513471027706</v>
+        <v>116.0513471027696</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>153.0483170414112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1856258610307</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.0526519233379</v>
+        <v>58.4613917368924</v>
       </c>
       <c r="I9" t="n">
-        <v>49.53063845618571</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.26700400501676</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.1758480129084</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4976141917368</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>209.6358522258431</v>
+        <v>225.8652050216209</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.0202421868009</v>
       </c>
       <c r="H10" t="n">
-        <v>153.5964365630632</v>
+        <v>153.5964365630631</v>
       </c>
       <c r="I10" t="n">
-        <v>126.2577607104923</v>
+        <v>126.2577607104922</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.72806208046057</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.6455181860799</v>
+        <v>133.6455181860797</v>
       </c>
       <c r="S10" t="n">
-        <v>207.0992965999891</v>
+        <v>133.3150136267313</v>
       </c>
       <c r="T10" t="n">
         <v>223.7978942402887</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>147.3141387159953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.492418249284097e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.034373084024991e-14</v>
+        <v>1.306383572747499e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.306383572747499e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.164092004426878</v>
+        <v>2.164092004426888</v>
       </c>
       <c r="H8" t="n">
-        <v>22.16300724033677</v>
+        <v>22.16300724033687</v>
       </c>
       <c r="I8" t="n">
-        <v>83.43115700066728</v>
+        <v>83.43115700066767</v>
       </c>
       <c r="J8" t="n">
-        <v>183.6746037607259</v>
+        <v>183.6746037607267</v>
       </c>
       <c r="K8" t="n">
-        <v>275.2806183081157</v>
+        <v>275.2806183081169</v>
       </c>
       <c r="L8" t="n">
-        <v>341.5099489885948</v>
+        <v>341.5099489885964</v>
       </c>
       <c r="M8" t="n">
-        <v>379.9956201723213</v>
+        <v>379.995620172323</v>
       </c>
       <c r="N8" t="n">
-        <v>386.1443465798991</v>
+        <v>386.144346579901</v>
       </c>
       <c r="O8" t="n">
-        <v>364.6251567108794</v>
+        <v>364.6251567108811</v>
       </c>
       <c r="P8" t="n">
-        <v>311.1991353515908</v>
+        <v>311.1991353515922</v>
       </c>
       <c r="Q8" t="n">
-        <v>233.6975904430531</v>
+        <v>233.6975904430542</v>
       </c>
       <c r="R8" t="n">
-        <v>135.94014437308</v>
+        <v>135.9401443730806</v>
       </c>
       <c r="S8" t="n">
-        <v>49.31424655087752</v>
+        <v>49.31424655087775</v>
       </c>
       <c r="T8" t="n">
-        <v>9.473312749378662</v>
+        <v>9.473312749378705</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1731273603541502</v>
+        <v>0.173127360354151</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15789130217991</v>
+        <v>1.157891302179915</v>
       </c>
       <c r="H9" t="n">
-        <v>11.18279231315861</v>
+        <v>11.18279231315866</v>
       </c>
       <c r="I9" t="n">
-        <v>39.86599439522936</v>
+        <v>39.86599439522955</v>
       </c>
       <c r="J9" t="n">
-        <v>109.3953357028835</v>
+        <v>109.395335702884</v>
       </c>
       <c r="K9" t="n">
-        <v>186.9740529489375</v>
+        <v>186.9740529489384</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4096882211248</v>
+        <v>251.4096882211259</v>
       </c>
       <c r="M9" t="n">
-        <v>293.3832479251465</v>
+        <v>293.3832479251478</v>
       </c>
       <c r="N9" t="n">
-        <v>301.1482295086249</v>
+        <v>301.1482295086263</v>
       </c>
       <c r="O9" t="n">
-        <v>275.4917959182175</v>
+        <v>275.4917959182187</v>
       </c>
       <c r="P9" t="n">
-        <v>221.1064540101269</v>
+        <v>221.1064540101279</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.8038090291408</v>
+        <v>147.8038090291415</v>
       </c>
       <c r="R9" t="n">
-        <v>71.89083014762637</v>
+        <v>71.8908301476267</v>
       </c>
       <c r="S9" t="n">
-        <v>21.50732309092945</v>
+        <v>21.50732309092955</v>
       </c>
       <c r="T9" t="n">
-        <v>4.667114503084811</v>
+        <v>4.667114503084832</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07617705935394148</v>
+        <v>0.07617705935394184</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9707371716578767</v>
+        <v>0.9707371716578812</v>
       </c>
       <c r="H10" t="n">
-        <v>8.630735944376401</v>
+        <v>8.630735944376442</v>
       </c>
       <c r="I10" t="n">
-        <v>29.19271421676597</v>
+        <v>29.19271421676611</v>
       </c>
       <c r="J10" t="n">
-        <v>68.63111803621187</v>
+        <v>68.6311180362122</v>
       </c>
       <c r="K10" t="n">
-        <v>112.7820095798878</v>
+        <v>112.7820095798884</v>
       </c>
       <c r="L10" t="n">
-        <v>144.3221427753902</v>
+        <v>144.3221427753908</v>
       </c>
       <c r="M10" t="n">
-        <v>152.1674640990615</v>
+        <v>152.1674640990622</v>
       </c>
       <c r="N10" t="n">
-        <v>148.5492619137914</v>
+        <v>148.549261913792</v>
       </c>
       <c r="O10" t="n">
-        <v>137.2092867721516</v>
+        <v>137.2092867721522</v>
       </c>
       <c r="P10" t="n">
-        <v>117.4062484703308</v>
+        <v>117.4062484703313</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.28600080127912</v>
+        <v>81.2860008012795</v>
       </c>
       <c r="R10" t="n">
-        <v>43.64787319108961</v>
+        <v>43.64787319108981</v>
       </c>
       <c r="S10" t="n">
-        <v>16.91730143698317</v>
+        <v>16.91730143698325</v>
       </c>
       <c r="T10" t="n">
-        <v>4.147695187992745</v>
+        <v>4.147695187992764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05294930027224788</v>
+        <v>0.05294930027224812</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869153</v>
+        <v>4.833130601869138</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639248</v>
+        <v>49.49729877639233</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285607</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203924</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975138</v>
+        <v>614.7923367975119</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544671</v>
+        <v>762.7042574544647</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954577</v>
+        <v>848.655443795455</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180185</v>
+        <v>862.3875761180157</v>
       </c>
       <c r="O11" t="n">
-        <v>814.328133695682</v>
+        <v>814.3281336956794</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620371</v>
+        <v>695.010221962035</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825979</v>
+        <v>521.9237322825962</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696635</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900934</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968223</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495322</v>
+        <v>0.386650448149531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858578</v>
+        <v>2.58595284985857</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837101</v>
+        <v>24.97486041837093</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469229</v>
+        <v>89.03390294469199</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583137</v>
+        <v>417.5746757598376</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747759</v>
+        <v>561.4806834747741</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821492</v>
+        <v>624.9036237520017</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340519</v>
+        <v>672.5632370340497</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924486</v>
+        <v>615.2639659924466</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047546</v>
+        <v>330.0946129047536</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627662</v>
+        <v>48.03293999627647</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868435</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643802</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535161</v>
+        <v>2.167976001535154</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092172</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798467</v>
+        <v>65.19695102798447</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085358</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329032</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100548</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.840092677007</v>
+        <v>339.8400926770059</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531035</v>
+        <v>331.7594548531025</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806245</v>
+        <v>306.4335533806235</v>
       </c>
       <c r="P13" t="n">
-        <v>262.206842949307</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194579</v>
+        <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.4800845781173</v>
+        <v>97.48008457811697</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493547</v>
+        <v>37.78190904493535</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377503</v>
+        <v>9.263170188377472</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473725</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443724</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496648</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.63848405005938</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>33.93991247395533</v>
@@ -34939,13 +34939,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>31.71334579105918</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O5" t="n">
         <v>38.48106384277808</v>
@@ -35018,16 +35018,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>36.92627338448402</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>38.48106384277808</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>171.7253144061133</v>
+        <v>2.628699234040454</v>
       </c>
       <c r="K8" t="n">
-        <v>113.6021797578536</v>
+        <v>55.19076726313637</v>
       </c>
       <c r="L8" t="n">
-        <v>105.7435340186075</v>
+        <v>105.7435340186091</v>
       </c>
       <c r="M8" t="n">
-        <v>149.6493869450485</v>
+        <v>149.6493869450503</v>
       </c>
       <c r="N8" t="n">
-        <v>156.7312829833082</v>
+        <v>156.7312829833101</v>
       </c>
       <c r="O8" t="n">
-        <v>134.5269452891926</v>
+        <v>134.5269452891943</v>
       </c>
       <c r="P8" t="n">
-        <v>79.96613959632123</v>
+        <v>95.15917660320268</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.39190056860366</v>
+        <v>223.7068912285094</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.1326139745785</v>
+        <v>233.1896216146434</v>
       </c>
       <c r="L9" t="n">
-        <v>233.1896216146424</v>
+        <v>141.241697509295</v>
       </c>
       <c r="M9" t="n">
-        <v>151.2492140031281</v>
+        <v>151.2492140031295</v>
       </c>
       <c r="N9" t="n">
-        <v>169.8065174252916</v>
+        <v>169.806517425293</v>
       </c>
       <c r="O9" t="n">
-        <v>132.895551473773</v>
+        <v>132.8955514737743</v>
       </c>
       <c r="P9" t="n">
-        <v>87.13204659579662</v>
+        <v>87.13204659579765</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.93111847783855</v>
+        <v>7.822034943119974</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>90.51251775400497</v>
+        <v>90.5125177540055</v>
       </c>
       <c r="L10" t="n">
-        <v>171.9121680357063</v>
+        <v>171.912168035707</v>
       </c>
       <c r="M10" t="n">
-        <v>191.7513410609021</v>
+        <v>191.7513410609028</v>
       </c>
       <c r="N10" t="n">
-        <v>192.6814342930199</v>
+        <v>192.6814342930206</v>
       </c>
       <c r="O10" t="n">
-        <v>161.7944146861912</v>
+        <v>161.7944146861919</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6848077352243</v>
+        <v>114.6848077352248</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937062</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525333</v>
+        <v>394.7024857525313</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844799</v>
+        <v>526.9378424844774</v>
       </c>
       <c r="M11" t="n">
-        <v>618.309210568185</v>
+        <v>618.3092105681823</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214276</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739953</v>
+        <v>584.2299222739927</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067676</v>
+        <v>463.7772262067654</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081484</v>
+        <v>299.6180424081467</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553136</v>
+        <v>88.0136023555304</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483954723</v>
+        <v>279.7332367854786</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949017</v>
+        <v>422.9263036948999</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601308</v>
+        <v>482.7695898299834</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507186</v>
+        <v>541.2215249507165</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480041</v>
+        <v>472.6677215480022</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240153</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187331</v>
+        <v>190.1128388187321</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186307</v>
+        <v>59.91672319186259</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070203</v>
+        <v>229.6099018070195</v>
       </c>
       <c r="L13" t="n">
-        <v>349.908930070371</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388476</v>
+        <v>379.4239696388465</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323321</v>
+        <v>375.8916272323311</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946641</v>
+        <v>331.0186812946632</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142005</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776348</v>
+        <v>95.37638356776291</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394803</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992795</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K27" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,10 +37795,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899075</v>
@@ -38190,10 +38190,10 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
